--- a/sales_report.xlsx
+++ b/sales_report.xlsx
@@ -22,13 +22,13 @@
     <t>From</t>
   </si>
   <si>
-    <t>2023-08-26</t>
+    <t>2023-08-27</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>2023-09-25</t>
+    <t>2023-09-26</t>
   </si>
   <si>
     <t>Total Orders</t>

--- a/sales_report.xlsx
+++ b/sales_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sales Report</t>
   </si>
@@ -22,13 +22,13 @@
     <t>From</t>
   </si>
   <si>
-    <t>2023-08-27</t>
+    <t>2023-08-28</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>2023-09-26</t>
+    <t>2023-09-27</t>
   </si>
   <si>
     <t>Total Orders</t>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>y@gmail.com</t>
+  </si>
+  <si>
+    <t>6512610164ab6e137119d59c</t>
+  </si>
+  <si>
+    <t>t@gmail.ocm</t>
+  </si>
+  <si>
+    <t>ONLINE</t>
   </si>
   <si>
     <t>Net Total Price</t>
@@ -472,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -521,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -607,33 +616,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="H14">
-        <v>1910</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1</v>
+      <c r="C12" s="4">
+        <v>45195.19557697917</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3395</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -656,41 +659,70 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H15">
+        <v>5305</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>NaN</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>1</v>
       </c>
     </row>

--- a/sales_report.xlsx
+++ b/sales_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Sales Report</t>
   </si>
@@ -22,13 +22,13 @@
     <t>From</t>
   </si>
   <si>
-    <t>2023-08-28</t>
+    <t>2023-08-07</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>2023-09-27</t>
+    <t>2023-09-29</t>
   </si>
   <si>
     <t>Total Orders</t>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>ONLINE</t>
+  </si>
+  <si>
+    <t>65168e1734b17f9272fa7e75</t>
+  </si>
+  <si>
+    <t>w@gmail.com</t>
   </si>
   <si>
     <t>Net Total Price</t>
@@ -481,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -530,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -639,33 +645,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="H15">
-        <v>5305</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1</v>
+      <c r="C13" s="4">
+        <v>45198.36324018519</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>5233</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -688,41 +688,70 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H16">
+        <v>10538</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H18" s="3">
         <v>NaN</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>1</v>
       </c>
     </row>
